--- a/excel/example.xlsx
+++ b/excel/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>唯一ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t>是否</t>
   </si>
   <si>
+    <t>服务器字段</t>
+  </si>
+  <si>
+    <t>客户端字段</t>
+  </si>
+  <si>
     <t>Id:number</t>
   </si>
   <si>
@@ -52,10 +58,19 @@
     <t>Bool:bool</t>
   </si>
   <si>
+    <t>Server:string:s</t>
+  </si>
+  <si>
+    <t>Client:string:c</t>
+  </si>
+  <si>
     <t>中华</t>
   </si>
   <si>
     <t>{1,2,3}</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
   <si>
     <t>消息</t>
@@ -87,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,25 +116,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,22 +169,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -164,82 +202,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,47 +467,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -522,6 +496,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,150 +534,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,22 +1032,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="12.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="6" width="11.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,125 +1068,167 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1.2444</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
